--- a/src/test/test-data/Register Data.xlsx
+++ b/src/test/test-data/Register Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Selnium-Training\apache-poi-training\src\test\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Selnium-Training\Selenium-Sample\src\test\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548C892-5FC5-4C4F-8FDB-29BC21077A7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1244E-3810-4AF9-B809-DA4AF246B5A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{4B0BB57C-6747-4532-9B4C-91D02EE2C44E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8235" uniqueCount="6578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8436" uniqueCount="6680">
   <si>
     <t>First Name</t>
   </si>
@@ -19768,12 +19768,319 @@
   </si>
   <si>
     <t>proin risus praesent lectus vestibulum quam sapien varius ut blandit non interdum in ante vestibulum ante ipsum primis in</t>
+  </si>
+  <si>
+    <t>Read Status</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Read At_1559491193956</t>
+  </si>
+  <si>
+    <t>Read At_1559491194405</t>
+  </si>
+  <si>
+    <t>Read At_1559491194969</t>
+  </si>
+  <si>
+    <t>Read At_1559491195483</t>
+  </si>
+  <si>
+    <t>Read At_1559491196001</t>
+  </si>
+  <si>
+    <t>Read At_1559491196446</t>
+  </si>
+  <si>
+    <t>Read At_1559491196978</t>
+  </si>
+  <si>
+    <t>Read At_1559491197480</t>
+  </si>
+  <si>
+    <t>Read At_1559491197959</t>
+  </si>
+  <si>
+    <t>Read At_1559491198442</t>
+  </si>
+  <si>
+    <t>Read At_1559491198883</t>
+  </si>
+  <si>
+    <t>Read At_1559491199401</t>
+  </si>
+  <si>
+    <t>Read At_1559491199893</t>
+  </si>
+  <si>
+    <t>Read At_1559491200469</t>
+  </si>
+  <si>
+    <t>Read At_1559491200988</t>
+  </si>
+  <si>
+    <t>Read At_1559491201486</t>
+  </si>
+  <si>
+    <t>Read At_1559491201937</t>
+  </si>
+  <si>
+    <t>Read At_1559491202438</t>
+  </si>
+  <si>
+    <t>Read At_1559491202941</t>
+  </si>
+  <si>
+    <t>Read At_1559491203351</t>
+  </si>
+  <si>
+    <t>Read At_1559491203805</t>
+  </si>
+  <si>
+    <t>Read At_1559491204297</t>
+  </si>
+  <si>
+    <t>Read At_1559491204748</t>
+  </si>
+  <si>
+    <t>Read At_1559491205213</t>
+  </si>
+  <si>
+    <t>Read At_1559491205700</t>
+  </si>
+  <si>
+    <t>Read At_1559491206188</t>
+  </si>
+  <si>
+    <t>Read At_1559491206693</t>
+  </si>
+  <si>
+    <t>Read At_1559491207142</t>
+  </si>
+  <si>
+    <t>Read At_1559491207699</t>
+  </si>
+  <si>
+    <t>Read At_1559491208254</t>
+  </si>
+  <si>
+    <t>Read At_1559491208738</t>
+  </si>
+  <si>
+    <t>Read At_1559491209250</t>
+  </si>
+  <si>
+    <t>Read At_1559491209725</t>
+  </si>
+  <si>
+    <t>Read At_1559491210276</t>
+  </si>
+  <si>
+    <t>Read At_1559491210791</t>
+  </si>
+  <si>
+    <t>Read At_1559491211316</t>
+  </si>
+  <si>
+    <t>Read At_1559491211838</t>
+  </si>
+  <si>
+    <t>Read At_1559491212306</t>
+  </si>
+  <si>
+    <t>Read At_1559491212735</t>
+  </si>
+  <si>
+    <t>Read At_1559491213251</t>
+  </si>
+  <si>
+    <t>Read At_1559491213676</t>
+  </si>
+  <si>
+    <t>Read At_1559491214212</t>
+  </si>
+  <si>
+    <t>Read At_1559491214754</t>
+  </si>
+  <si>
+    <t>Read At_1559491215531</t>
+  </si>
+  <si>
+    <t>Read At_1559491216086</t>
+  </si>
+  <si>
+    <t>Read At_1559491216638</t>
+  </si>
+  <si>
+    <t>Read At_1559491217200</t>
+  </si>
+  <si>
+    <t>Read At_1559491217718</t>
+  </si>
+  <si>
+    <t>Read At_1559491218258</t>
+  </si>
+  <si>
+    <t>Read At_1559491218835</t>
+  </si>
+  <si>
+    <t>Read At_1559491219311</t>
+  </si>
+  <si>
+    <t>Read At_1559491219833</t>
+  </si>
+  <si>
+    <t>Read At_1559491220431</t>
+  </si>
+  <si>
+    <t>Read At_1559491221014</t>
+  </si>
+  <si>
+    <t>Read At_1559491221526</t>
+  </si>
+  <si>
+    <t>Read At_1559491222118</t>
+  </si>
+  <si>
+    <t>Read At_1559491222615</t>
+  </si>
+  <si>
+    <t>Read At_1559491223072</t>
+  </si>
+  <si>
+    <t>Read At_1559491223583</t>
+  </si>
+  <si>
+    <t>Read At_1559491224086</t>
+  </si>
+  <si>
+    <t>Read At_1559491224701</t>
+  </si>
+  <si>
+    <t>Read At_1559491225236</t>
+  </si>
+  <si>
+    <t>Read At_1559491225766</t>
+  </si>
+  <si>
+    <t>Read At_1559491226328</t>
+  </si>
+  <si>
+    <t>Read At_1559491227057</t>
+  </si>
+  <si>
+    <t>Read At_1559491227614</t>
+  </si>
+  <si>
+    <t>Read At_1559491228099</t>
+  </si>
+  <si>
+    <t>Read At_1559491228598</t>
+  </si>
+  <si>
+    <t>Read At_1559491229085</t>
+  </si>
+  <si>
+    <t>Read At_1559491229502</t>
+  </si>
+  <si>
+    <t>Read At_1559491229963</t>
+  </si>
+  <si>
+    <t>Read At_1559491230445</t>
+  </si>
+  <si>
+    <t>Read At_1559491230983</t>
+  </si>
+  <si>
+    <t>Read At_1559491231468</t>
+  </si>
+  <si>
+    <t>Read At_1559491232044</t>
+  </si>
+  <si>
+    <t>Read At_1559491232510</t>
+  </si>
+  <si>
+    <t>Read At_1559491233052</t>
+  </si>
+  <si>
+    <t>Read At_1559491233541</t>
+  </si>
+  <si>
+    <t>Read At_1559491234094</t>
+  </si>
+  <si>
+    <t>Read At_1559491234722</t>
+  </si>
+  <si>
+    <t>Read At_1559491235265</t>
+  </si>
+  <si>
+    <t>Read At_1559491235951</t>
+  </si>
+  <si>
+    <t>Read At_1559491236517</t>
+  </si>
+  <si>
+    <t>Read At_1559491237139</t>
+  </si>
+  <si>
+    <t>Read At_1559491237748</t>
+  </si>
+  <si>
+    <t>Read At_1559491238325</t>
+  </si>
+  <si>
+    <t>Read At_1559491238958</t>
+  </si>
+  <si>
+    <t>Read At_1559491239588</t>
+  </si>
+  <si>
+    <t>Read At_1559491240109</t>
+  </si>
+  <si>
+    <t>Read At_1559491240645</t>
+  </si>
+  <si>
+    <t>Read At_1559491241160</t>
+  </si>
+  <si>
+    <t>Read At_1559491241764</t>
+  </si>
+  <si>
+    <t>Read At_1559491242481</t>
+  </si>
+  <si>
+    <t>Read At_1559491242977</t>
+  </si>
+  <si>
+    <t>Read At_1559491243351</t>
+  </si>
+  <si>
+    <t>Read At_1559491243701</t>
+  </si>
+  <si>
+    <t>Read At_1559491244285</t>
+  </si>
+  <si>
+    <t>Read At_1559491244985</t>
+  </si>
+  <si>
+    <t>Read At_1559491245548</t>
+  </si>
+  <si>
+    <t>Read At_1559491246146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -20144,30 +20451,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43EED39-199B-4AF6-857E-0117093D4741}">
-  <dimension ref="A1:K1001"/>
+  <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="73.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="33.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="33.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="27.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="20.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="11.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="16.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="19.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="73.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="49.88671875" collapsed="true"/>
+    <col min="13" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20201,8 +20509,11 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="2" t="s">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5802</v>
       </c>
@@ -20236,8 +20547,11 @@
       <c r="K2" s="1" t="s">
         <v>4739</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1250</v>
       </c>
@@ -20268,8 +20582,11 @@
       <c r="K3" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>668</v>
       </c>
@@ -20300,8 +20617,11 @@
       <c r="K4" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6470</v>
       </c>
@@ -20335,8 +20655,11 @@
       <c r="K5" s="1" t="s">
         <v>6475</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3769</v>
       </c>
@@ -20367,8 +20690,11 @@
       <c r="K6" s="1" t="s">
         <v>3774</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3934</v>
       </c>
@@ -20402,8 +20728,11 @@
       <c r="K7" s="1" t="s">
         <v>3940</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1835</v>
       </c>
@@ -20437,8 +20766,11 @@
       <c r="K8" s="1" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2951</v>
       </c>
@@ -20469,8 +20801,11 @@
       <c r="K9" s="1" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4870</v>
       </c>
@@ -20501,8 +20836,11 @@
       <c r="K10" s="1" t="s">
         <v>4875</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5129</v>
       </c>
@@ -20536,8 +20874,11 @@
       <c r="K11" s="1" t="s">
         <v>5135</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2484</v>
       </c>
@@ -20568,8 +20909,11 @@
       <c r="K12" s="1" t="s">
         <v>2490</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4207</v>
       </c>
@@ -20603,8 +20947,11 @@
       <c r="K13" s="1" t="s">
         <v>4212</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>354</v>
       </c>
@@ -20638,8 +20985,11 @@
       <c r="K14" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5230</v>
       </c>
@@ -20673,8 +21023,11 @@
       <c r="K15" s="1" t="s">
         <v>5236</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4641</v>
       </c>
@@ -20704,6 +21057,9 @@
       </c>
       <c r="K16" s="1" t="s">
         <v>4647</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6594</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -20740,6 +21096,9 @@
       <c r="K17" s="1" t="s">
         <v>3081</v>
       </c>
+      <c r="L17" t="s">
+        <v>6595</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -20775,6 +21134,9 @@
       <c r="K18" s="1" t="s">
         <v>2225</v>
       </c>
+      <c r="L18" t="s">
+        <v>6596</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -20807,6 +21169,9 @@
       <c r="K19" s="1" t="s">
         <v>5047</v>
       </c>
+      <c r="L19" t="s">
+        <v>6597</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -20839,6 +21204,9 @@
       <c r="K20" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="L20" t="s">
+        <v>6598</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -20874,6 +21242,9 @@
       <c r="K21" s="1" t="s">
         <v>4372</v>
       </c>
+      <c r="L21" t="s">
+        <v>6599</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -20906,6 +21277,9 @@
       <c r="K22" s="1" t="s">
         <v>4138</v>
       </c>
+      <c r="L22" t="s">
+        <v>6600</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -20938,6 +21312,9 @@
       <c r="K23" s="1" t="s">
         <v>3520</v>
       </c>
+      <c r="L23" t="s">
+        <v>6601</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -20973,6 +21350,9 @@
       <c r="K24" s="1" t="s">
         <v>2950</v>
       </c>
+      <c r="L24" t="s">
+        <v>6602</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -21005,6 +21385,9 @@
       <c r="K25" s="1" t="s">
         <v>2191</v>
       </c>
+      <c r="L25" t="s">
+        <v>6603</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -21037,6 +21420,9 @@
       <c r="K26" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="L26" t="s">
+        <v>6604</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -21069,6 +21455,9 @@
       <c r="K27" s="1" t="s">
         <v>4178</v>
       </c>
+      <c r="L27" t="s">
+        <v>6605</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -21101,6 +21490,9 @@
       <c r="K28" s="1" t="s">
         <v>2813</v>
       </c>
+      <c r="L28" t="s">
+        <v>6606</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -21136,6 +21528,9 @@
       <c r="K29" s="1" t="s">
         <v>5964</v>
       </c>
+      <c r="L29" t="s">
+        <v>6607</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -21168,6 +21563,9 @@
       <c r="K30" s="1" t="s">
         <v>5645</v>
       </c>
+      <c r="L30" t="s">
+        <v>6608</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -21203,6 +21601,9 @@
       <c r="K31" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="L31" t="s">
+        <v>6609</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -21235,6 +21636,9 @@
       <c r="K32" s="1" t="s">
         <v>4895</v>
       </c>
+      <c r="L32" t="s">
+        <v>6610</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -21270,6 +21674,9 @@
       <c r="K33" s="1" t="s">
         <v>2390</v>
       </c>
+      <c r="L33" t="s">
+        <v>6611</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -21305,6 +21712,9 @@
       <c r="K34" s="1" t="s">
         <v>4535</v>
       </c>
+      <c r="L34" t="s">
+        <v>6612</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -21340,6 +21750,9 @@
       <c r="K35" s="1" t="s">
         <v>1386</v>
       </c>
+      <c r="L35" t="s">
+        <v>6613</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -21375,6 +21788,9 @@
       <c r="K36" s="1" t="s">
         <v>5370</v>
       </c>
+      <c r="L36" t="s">
+        <v>6614</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -21410,6 +21826,9 @@
       <c r="K37" s="1" t="s">
         <v>1221</v>
       </c>
+      <c r="L37" t="s">
+        <v>6615</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -21442,6 +21861,9 @@
       <c r="K38" s="1" t="s">
         <v>3442</v>
       </c>
+      <c r="L38" t="s">
+        <v>6616</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -21477,6 +21899,9 @@
       <c r="K39" s="1" t="s">
         <v>2343</v>
       </c>
+      <c r="L39" t="s">
+        <v>6617</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -21512,6 +21937,9 @@
       <c r="K40" s="1" t="s">
         <v>3972</v>
       </c>
+      <c r="L40" t="s">
+        <v>6618</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -21547,6 +21975,9 @@
       <c r="K41" s="1" t="s">
         <v>2465</v>
       </c>
+      <c r="L41" t="s">
+        <v>6619</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -21579,6 +22010,9 @@
       <c r="K42" s="1" t="s">
         <v>2231</v>
       </c>
+      <c r="L42" t="s">
+        <v>6620</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -21611,6 +22045,9 @@
       <c r="K43" s="1" t="s">
         <v>3281</v>
       </c>
+      <c r="L43" t="s">
+        <v>6621</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -21643,6 +22080,9 @@
       <c r="K44" s="1" t="s">
         <v>3174</v>
       </c>
+      <c r="L44" t="s">
+        <v>6622</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -21675,6 +22115,9 @@
       <c r="K45" s="1" t="s">
         <v>3359</v>
       </c>
+      <c r="L45" t="s">
+        <v>6623</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -21710,6 +22153,9 @@
       <c r="K46" s="1" t="s">
         <v>4353</v>
       </c>
+      <c r="L46" t="s">
+        <v>6624</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -21745,6 +22191,9 @@
       <c r="K47" s="1" t="s">
         <v>5868</v>
       </c>
+      <c r="L47" t="s">
+        <v>6625</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -21777,6 +22226,9 @@
       <c r="K48" s="1" t="s">
         <v>2905</v>
       </c>
+      <c r="L48" t="s">
+        <v>6626</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -21809,6 +22261,9 @@
       <c r="K49" s="1" t="s">
         <v>6257</v>
       </c>
+      <c r="L49" t="s">
+        <v>6627</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -21844,6 +22299,9 @@
       <c r="K50" s="1" t="s">
         <v>4294</v>
       </c>
+      <c r="L50" t="s">
+        <v>6628</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -21876,6 +22334,9 @@
       <c r="K51" s="1" t="s">
         <v>6544</v>
       </c>
+      <c r="L51" t="s">
+        <v>6629</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -21908,6 +22369,9 @@
       <c r="K52" s="1" t="s">
         <v>1331</v>
       </c>
+      <c r="L52" t="s">
+        <v>6630</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -21943,6 +22407,9 @@
       <c r="K53" s="1" t="s">
         <v>2866</v>
       </c>
+      <c r="L53" t="s">
+        <v>6631</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -21978,6 +22445,9 @@
       <c r="K54" s="1" t="s">
         <v>2310</v>
       </c>
+      <c r="L54" t="s">
+        <v>6632</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -22013,6 +22483,9 @@
       <c r="K55" s="1" t="s">
         <v>2664</v>
       </c>
+      <c r="L55" t="s">
+        <v>6633</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -22048,6 +22521,9 @@
       <c r="K56" s="1" t="s">
         <v>3567</v>
       </c>
+      <c r="L56" t="s">
+        <v>6634</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -22080,6 +22556,9 @@
       <c r="K57" s="1" t="s">
         <v>1718</v>
       </c>
+      <c r="L57" t="s">
+        <v>6635</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -22112,6 +22591,9 @@
       <c r="K58" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="L58" t="s">
+        <v>6636</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -22147,6 +22629,9 @@
       <c r="K59" s="1" t="s">
         <v>2159</v>
       </c>
+      <c r="L59" t="s">
+        <v>6637</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -22179,6 +22664,9 @@
       <c r="K60" s="1" t="s">
         <v>951</v>
       </c>
+      <c r="L60" t="s">
+        <v>6638</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -22211,6 +22699,9 @@
       <c r="K61" s="1" t="s">
         <v>4684</v>
       </c>
+      <c r="L61" t="s">
+        <v>6639</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -22243,6 +22734,9 @@
       <c r="K62" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="L62" t="s">
+        <v>6640</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -22278,6 +22772,9 @@
       <c r="K63" s="1" t="s">
         <v>5325</v>
       </c>
+      <c r="L63" t="s">
+        <v>6641</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -22313,6 +22810,9 @@
       <c r="K64" s="1" t="s">
         <v>3075</v>
       </c>
+      <c r="L64" t="s">
+        <v>6642</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -22345,6 +22845,9 @@
       <c r="K65" s="1" t="s">
         <v>3598</v>
       </c>
+      <c r="L65" t="s">
+        <v>6643</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -22377,6 +22880,9 @@
       <c r="K66" s="1" t="s">
         <v>1610</v>
       </c>
+      <c r="L66" t="s">
+        <v>6644</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -22412,6 +22918,9 @@
       <c r="K67" s="1" t="s">
         <v>2558</v>
       </c>
+      <c r="L67" t="s">
+        <v>6645</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -22447,6 +22956,9 @@
       <c r="K68" s="1" t="s">
         <v>618</v>
       </c>
+      <c r="L68" t="s">
+        <v>6646</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -22482,6 +22994,9 @@
       <c r="K69" s="1" t="s">
         <v>1834</v>
       </c>
+      <c r="L69" t="s">
+        <v>6647</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -22514,6 +23029,9 @@
       <c r="K70" s="1" t="s">
         <v>547</v>
       </c>
+      <c r="L70" t="s">
+        <v>6648</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -22549,6 +23067,9 @@
       <c r="K71" s="1" t="s">
         <v>3907</v>
       </c>
+      <c r="L71" t="s">
+        <v>6649</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -22581,6 +23102,9 @@
       <c r="K72" s="1" t="s">
         <v>5704</v>
       </c>
+      <c r="L72" t="s">
+        <v>6650</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -22613,6 +23137,9 @@
       <c r="K73" s="1" t="s">
         <v>4469</v>
       </c>
+      <c r="L73" t="s">
+        <v>6651</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -22645,6 +23172,9 @@
       <c r="K74" s="1" t="s">
         <v>5589</v>
       </c>
+      <c r="L74" t="s">
+        <v>6652</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
@@ -22677,6 +23207,9 @@
       <c r="K75" s="1" t="s">
         <v>3401</v>
       </c>
+      <c r="L75" t="s">
+        <v>6653</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -22712,6 +23245,9 @@
       <c r="K76" s="1" t="s">
         <v>5343</v>
       </c>
+      <c r="L76" t="s">
+        <v>6654</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -22747,6 +23283,9 @@
       <c r="K77" s="1" t="s">
         <v>2538</v>
       </c>
+      <c r="L77" t="s">
+        <v>6655</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -22782,6 +23321,9 @@
       <c r="K78" s="1" t="s">
         <v>4732</v>
       </c>
+      <c r="L78" t="s">
+        <v>6656</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -22817,6 +23359,9 @@
       <c r="K79" s="1" t="s">
         <v>2807</v>
       </c>
+      <c r="L79" t="s">
+        <v>6657</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -22852,6 +23397,9 @@
       <c r="K80" s="1" t="s">
         <v>2518</v>
       </c>
+      <c r="L80" t="s">
+        <v>6658</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -22887,6 +23435,9 @@
       <c r="K81" s="1" t="s">
         <v>5909</v>
       </c>
+      <c r="L81" t="s">
+        <v>6659</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -22922,6 +23473,9 @@
       <c r="K82" s="1" t="s">
         <v>2283</v>
       </c>
+      <c r="L82" t="s">
+        <v>6660</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -22957,6 +23511,9 @@
       <c r="K83" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="L83" t="s">
+        <v>6661</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -22989,6 +23546,9 @@
       <c r="K84" s="1" t="s">
         <v>2530</v>
       </c>
+      <c r="L84" t="s">
+        <v>6662</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -23024,6 +23584,9 @@
       <c r="K85" s="1" t="s">
         <v>5548</v>
       </c>
+      <c r="L85" t="s">
+        <v>6663</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -23059,6 +23622,9 @@
       <c r="K86" s="1" t="s">
         <v>1455</v>
       </c>
+      <c r="L86" t="s">
+        <v>6664</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
@@ -23094,6 +23660,9 @@
       <c r="K87" s="1" t="s">
         <v>4434</v>
       </c>
+      <c r="L87" t="s">
+        <v>6665</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -23129,6 +23698,9 @@
       <c r="K88" s="1" t="s">
         <v>1020</v>
       </c>
+      <c r="L88" t="s">
+        <v>6666</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
@@ -23161,6 +23733,9 @@
       <c r="K89" s="1" t="s">
         <v>5350</v>
       </c>
+      <c r="L89" t="s">
+        <v>6667</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
@@ -23193,6 +23768,9 @@
       <c r="K90" s="1" t="s">
         <v>1684</v>
       </c>
+      <c r="L90" t="s">
+        <v>6668</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -23228,6 +23806,9 @@
       <c r="K91" s="1" t="s">
         <v>897</v>
       </c>
+      <c r="L91" t="s">
+        <v>6669</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -23260,6 +23841,9 @@
       <c r="K92" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="L92" t="s">
+        <v>6670</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -23295,6 +23879,9 @@
       <c r="K93" s="1" t="s">
         <v>3337</v>
       </c>
+      <c r="L93" t="s">
+        <v>6671</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
@@ -23330,6 +23917,9 @@
       <c r="K94" s="1" t="s">
         <v>4244</v>
       </c>
+      <c r="L94" t="s">
+        <v>6672</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -23365,6 +23955,9 @@
       <c r="K95" s="1" t="s">
         <v>3134</v>
       </c>
+      <c r="L95" t="s">
+        <v>6673</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -23397,6 +23990,9 @@
       <c r="K96" s="1" t="s">
         <v>2270</v>
       </c>
+      <c r="L96" t="s">
+        <v>6674</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
@@ -23429,6 +24025,9 @@
       <c r="K97" s="1" t="s">
         <v>4605</v>
       </c>
+      <c r="L97" t="s">
+        <v>6675</v>
+      </c>
     </row>
     <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
@@ -23464,6 +24063,9 @@
       <c r="K98" s="1" t="s">
         <v>4465</v>
       </c>
+      <c r="L98" t="s">
+        <v>6676</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -23496,6 +24098,9 @@
       <c r="K99" s="1" t="s">
         <v>5626</v>
       </c>
+      <c r="L99" t="s">
+        <v>6677</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -23528,6 +24133,9 @@
       <c r="K100" s="1" t="s">
         <v>1159</v>
       </c>
+      <c r="L100" t="s">
+        <v>6678</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
@@ -23559,6 +24167,9 @@
       </c>
       <c r="K101" s="1" t="s">
         <v>2730</v>
+      </c>
+      <c r="L101" t="s">
+        <v>6679</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
